--- a/Code/Results/Cases/Case_1_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9967210852463211</v>
+        <v>0.9295119618572301</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.07302152386783689</v>
+        <v>0.02829632356917955</v>
       </c>
       <c r="E2">
-        <v>0.1712612053359077</v>
+        <v>0.4073428573611526</v>
       </c>
       <c r="F2">
-        <v>0.3632121512741833</v>
+        <v>0.5540613752812575</v>
       </c>
       <c r="G2">
-        <v>0.2577068211512312</v>
+        <v>0.394618540327393</v>
       </c>
       <c r="H2">
-        <v>0.2356334408499023</v>
+        <v>0.5598256522037914</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.448176210665082</v>
+        <v>0.5065805752580843</v>
       </c>
       <c r="L2">
-        <v>0.2936970043330263</v>
+        <v>0.1227057796620556</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9889687419957056</v>
+        <v>1.853650692566276</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8841761656270251</v>
+        <v>0.9018167476027656</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06483145088664344</v>
+        <v>0.02555375907647317</v>
       </c>
       <c r="E3">
-        <v>0.1781486697790271</v>
+        <v>0.4121655656644716</v>
       </c>
       <c r="F3">
-        <v>0.3442871769918554</v>
+        <v>0.5540019758901806</v>
       </c>
       <c r="G3">
-        <v>0.2475563372639797</v>
+        <v>0.3959734702752016</v>
       </c>
       <c r="H3">
-        <v>0.236404031090899</v>
+        <v>0.5639930804856448</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.297338413307699</v>
+        <v>0.4556783212029529</v>
       </c>
       <c r="L3">
-        <v>0.2549949276160248</v>
+        <v>0.1113939134944673</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9687237984646799</v>
+        <v>1.865005279891861</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.815740693404166</v>
+        <v>0.8852098640543602</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05978929068319871</v>
+        <v>0.02385840434255471</v>
       </c>
       <c r="E4">
-        <v>0.1827196246068805</v>
+        <v>0.4153281861993481</v>
       </c>
       <c r="F4">
-        <v>0.3334344564008447</v>
+        <v>0.5543424821304797</v>
       </c>
       <c r="G4">
-        <v>0.2420210403090834</v>
+        <v>0.3971155826816357</v>
       </c>
       <c r="H4">
-        <v>0.237325232286679</v>
+        <v>0.5668150632768132</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.204549388872124</v>
+        <v>0.4242478554418767</v>
       </c>
       <c r="L4">
-        <v>0.231315738368437</v>
+        <v>0.1044729462433054</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9587005695042166</v>
+        <v>1.873177042429106</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7880066306213394</v>
+        <v>0.8785430886507584</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05773083404650237</v>
+        <v>0.02316470416609917</v>
       </c>
       <c r="E5">
-        <v>0.184666436844342</v>
+        <v>0.4166676690771425</v>
       </c>
       <c r="F5">
-        <v>0.3291953248713355</v>
+        <v>0.5545760369707438</v>
       </c>
       <c r="G5">
-        <v>0.2399317830727483</v>
+        <v>0.3976589189305386</v>
       </c>
       <c r="H5">
-        <v>0.2378094153349508</v>
+        <v>0.5680312582803992</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.166685968058687</v>
+        <v>0.411396273404705</v>
       </c>
       <c r="L5">
-        <v>0.2216833544159869</v>
+        <v>0.1016589075174466</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9551943768414759</v>
+        <v>1.876808755959516</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.783410315157397</v>
+        <v>0.8774421721109036</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05738879314632328</v>
+        <v>0.02304934605886899</v>
       </c>
       <c r="E6">
-        <v>0.1849947297297092</v>
+        <v>0.416893151611589</v>
       </c>
       <c r="F6">
-        <v>0.3285022295813746</v>
+        <v>0.5546205440457754</v>
       </c>
       <c r="G6">
-        <v>0.2395946626058816</v>
+        <v>0.3977538430560585</v>
       </c>
       <c r="H6">
-        <v>0.2378962737393167</v>
+        <v>0.5682372068527854</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.160395481585624</v>
+        <v>0.4092596830052742</v>
       </c>
       <c r="L6">
-        <v>0.2200848213733337</v>
+        <v>0.1011920237133523</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9546463412595898</v>
+        <v>1.877430015551383</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8153660566927954</v>
+        <v>0.8851195452563729</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05976154520336507</v>
+        <v>0.02384906026289713</v>
       </c>
       <c r="E7">
-        <v>0.1827455418791448</v>
+        <v>0.4153460456529832</v>
       </c>
       <c r="F7">
-        <v>0.3333765555064474</v>
+        <v>0.5543452481065856</v>
       </c>
       <c r="G7">
-        <v>0.2419922014755826</v>
+        <v>0.3971225949332151</v>
       </c>
       <c r="H7">
-        <v>0.2373313266804402</v>
+        <v>0.5668311971578817</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.204038965979436</v>
+        <v>0.4240747090709931</v>
       </c>
       <c r="L7">
-        <v>0.2311857687284942</v>
+        <v>0.1044349693981843</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9586509768027724</v>
+        <v>1.873224799731332</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9577684185570376</v>
+        <v>0.9198803544065868</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07020014702776223</v>
+        <v>0.02735307821608046</v>
       </c>
       <c r="E8">
-        <v>0.1735638530670709</v>
+        <v>0.4089639335475823</v>
       </c>
       <c r="F8">
-        <v>0.3565217173816961</v>
+        <v>0.5539626520722223</v>
       </c>
       <c r="G8">
-        <v>0.25405677343646</v>
+        <v>0.3950212928324461</v>
       </c>
       <c r="H8">
-        <v>0.2358037562082345</v>
+        <v>0.5612079849515368</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.39619880005327</v>
+        <v>0.4890665960867011</v>
       </c>
       <c r="L8">
-        <v>0.2803325675715627</v>
+        <v>0.1188004270693597</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9814720529379883</v>
+        <v>1.857316634766292</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.242991833663382</v>
+        <v>0.9911845110700312</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09058191850813557</v>
+        <v>0.03413248711799355</v>
       </c>
       <c r="E9">
-        <v>0.1583612952936573</v>
+        <v>0.3980456364031486</v>
       </c>
       <c r="F9">
-        <v>0.4084487308611742</v>
+        <v>0.5562043268127113</v>
       </c>
       <c r="G9">
-        <v>0.2836681226690843</v>
+        <v>0.3933659107447838</v>
       </c>
       <c r="H9">
-        <v>0.2365472711317764</v>
+        <v>0.5522673742740665</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.772020866209573</v>
+        <v>0.6150825955405139</v>
       </c>
       <c r="L9">
-        <v>0.3775741403486705</v>
+        <v>0.1471614772530074</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.046603463686324</v>
+        <v>1.835647885936794</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.457199410868441</v>
+        <v>1.045463893330748</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1055307556822385</v>
+        <v>0.03905577690838413</v>
       </c>
       <c r="E10">
-        <v>0.1490296897939096</v>
+        <v>0.3909953958569723</v>
       </c>
       <c r="F10">
-        <v>0.451248714867404</v>
+        <v>0.5596776131576746</v>
       </c>
       <c r="G10">
-        <v>0.3096703955574895</v>
+        <v>0.3936589791832006</v>
       </c>
       <c r="H10">
-        <v>0.2396426183116205</v>
+        <v>0.5469687022828396</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.048118002790289</v>
+        <v>0.7067557507934055</v>
       </c>
       <c r="L10">
-        <v>0.449842892838447</v>
+        <v>0.168110547274722</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.108754742339954</v>
+        <v>1.825545589339669</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.555899006308294</v>
+        <v>1.070563818952252</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1123325240854172</v>
+        <v>0.04128272609065675</v>
       </c>
       <c r="E11">
-        <v>0.145213846458585</v>
+        <v>0.3879985390480201</v>
       </c>
       <c r="F11">
-        <v>0.47188497469201</v>
+        <v>0.5616548401247812</v>
       </c>
       <c r="G11">
-        <v>0.3225672597589977</v>
+        <v>0.394121428441693</v>
       </c>
       <c r="H11">
-        <v>0.2416679004836624</v>
+        <v>0.5448335629391465</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.173861703237463</v>
+        <v>0.7482551600473357</v>
       </c>
       <c r="L11">
-        <v>0.4829701011422003</v>
+        <v>0.1776644925446647</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.140576019815484</v>
+        <v>1.822215259086931</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.593475516602012</v>
+        <v>1.080126694055622</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1149089533011107</v>
+        <v>0.04212415569094219</v>
       </c>
       <c r="E12">
-        <v>0.1438333097772464</v>
+        <v>0.3868939226029546</v>
       </c>
       <c r="F12">
-        <v>0.4798808916879551</v>
+        <v>0.5624607022612835</v>
       </c>
       <c r="G12">
-        <v>0.3276175189797925</v>
+        <v>0.3943439729855669</v>
       </c>
       <c r="H12">
-        <v>0.2425292439744737</v>
+        <v>0.5440645891332139</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.221510957628794</v>
+        <v>0.7639398896737646</v>
       </c>
       <c r="L12">
-        <v>0.495556927860676</v>
+        <v>0.181285682574952</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.153175465315172</v>
+        <v>1.8211362369764</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.585373455641673</v>
+        <v>1.078064584097291</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.114354031019019</v>
+        <v>0.04194302254502702</v>
       </c>
       <c r="E13">
-        <v>0.1441277217703014</v>
+        <v>0.3871304773886735</v>
       </c>
       <c r="F13">
-        <v>0.4781505320707637</v>
+        <v>0.5622846044436187</v>
       </c>
       <c r="G13">
-        <v>0.3265222363256299</v>
+        <v>0.3942939332753213</v>
       </c>
       <c r="H13">
-        <v>0.2423394450721332</v>
+        <v>0.5442284424698869</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.211247177978834</v>
+        <v>0.7605632610429325</v>
       </c>
       <c r="L13">
-        <v>0.4928441483640995</v>
+        <v>0.1805056492910069</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.150436862741827</v>
+        <v>1.821360522170096</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.558986294979348</v>
+        <v>1.071349401829849</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1125444702944236</v>
+        <v>0.04135198869605006</v>
       </c>
       <c r="E14">
-        <v>0.1450989611552593</v>
+        <v>0.3879070558699542</v>
       </c>
       <c r="F14">
-        <v>0.472539086248652</v>
+        <v>0.5617199938785902</v>
       </c>
       <c r="G14">
-        <v>0.3229793340518228</v>
+        <v>0.3941387862997914</v>
       </c>
       <c r="H14">
-        <v>0.2417368378021791</v>
+        <v>0.5447695063548537</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.177781106371583</v>
+        <v>0.749546162963469</v>
       </c>
       <c r="L14">
-        <v>0.4840047435151291</v>
+        <v>0.1779623443741656</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.141601339173803</v>
+        <v>1.822122836798087</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.5428502225827</v>
+        <v>1.06724370486927</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1114361759256468</v>
+        <v>0.04098971884903335</v>
       </c>
       <c r="E15">
-        <v>0.1457023492560552</v>
+        <v>0.3883866686994182</v>
       </c>
       <c r="F15">
-        <v>0.4691259603335354</v>
+        <v>0.5613815937996307</v>
       </c>
       <c r="G15">
-        <v>0.3208312832654059</v>
+        <v>0.3940499332742888</v>
       </c>
       <c r="H15">
-        <v>0.2413801931608646</v>
+        <v>0.5451060744003371</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.157286817365616</v>
+        <v>0.7427939108582393</v>
       </c>
       <c r="L15">
-        <v>0.4785960450488886</v>
+        <v>0.1764049244132195</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.136262082258241</v>
+        <v>1.822613496208703</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.450776151858861</v>
+        <v>1.043831713259806</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1050863186664088</v>
+        <v>0.03890998159604919</v>
       </c>
       <c r="E16">
-        <v>0.1492879292061744</v>
+        <v>0.3911954784419311</v>
       </c>
       <c r="F16">
-        <v>0.44992470758514</v>
+        <v>0.5595563905871543</v>
       </c>
       <c r="G16">
-        <v>0.3088501340589431</v>
+        <v>0.3936353882688479</v>
       </c>
       <c r="H16">
-        <v>0.2395231565063796</v>
+        <v>0.5471137754131377</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.039904283677714</v>
+        <v>0.7040394945763353</v>
       </c>
       <c r="L16">
-        <v>0.4476835274682855</v>
+        <v>0.1674866469123231</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.106749840105635</v>
+        <v>1.825788708137935</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.394627468039118</v>
+        <v>1.029573286188366</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1011916330342828</v>
+        <v>0.03763085093656571</v>
       </c>
       <c r="E17">
-        <v>0.151599371511896</v>
+        <v>0.3929724511261643</v>
       </c>
       <c r="F17">
-        <v>0.4384535634423017</v>
+        <v>0.5585384310647683</v>
       </c>
       <c r="G17">
-        <v>0.3017826090641051</v>
+        <v>0.3934654457461306</v>
       </c>
       <c r="H17">
-        <v>0.2385459167707324</v>
+        <v>0.548415916885034</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.967939392221552</v>
+        <v>0.6802121795777794</v>
       </c>
       <c r="L17">
-        <v>0.4287883734467499</v>
+        <v>0.1620216415938103</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.089580938817221</v>
+        <v>1.828060774609924</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.362449092014174</v>
+        <v>1.021410650428265</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09895161679266096</v>
+        <v>0.03689393795845319</v>
       </c>
       <c r="E18">
-        <v>0.1529690726577719</v>
+        <v>0.3940143173880362</v>
       </c>
       <c r="F18">
-        <v>0.4319645759770978</v>
+        <v>0.5579903145754486</v>
       </c>
       <c r="G18">
-        <v>0.2978172907273802</v>
+        <v>0.3933986729955166</v>
       </c>
       <c r="H18">
-        <v>0.2380415674718108</v>
+        <v>0.5491907837820094</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.926560040007189</v>
+        <v>0.666488273245335</v>
       </c>
       <c r="L18">
-        <v>0.4179436929739921</v>
+        <v>0.1588805931303767</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.080037338563358</v>
+        <v>1.829486689630116</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.351573513057645</v>
+        <v>1.01865354123413</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09819318787464226</v>
+        <v>0.03664422870671302</v>
       </c>
       <c r="E19">
-        <v>0.1534396574317221</v>
+        <v>0.3943704763594891</v>
       </c>
       <c r="F19">
-        <v>0.4297858185103181</v>
+        <v>0.5578111526353808</v>
       </c>
       <c r="G19">
-        <v>0.2964914526514661</v>
+        <v>0.3933813816894727</v>
       </c>
       <c r="H19">
-        <v>0.2378805525987389</v>
+        <v>0.549457591121012</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.912551579414412</v>
+        <v>0.6618383499150298</v>
       </c>
       <c r="L19">
-        <v>0.414275696391087</v>
+        <v>0.1578174838722504</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.076861821671457</v>
+        <v>1.829989927571887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.400592351815789</v>
+        <v>1.03108714652879</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1016062144425476</v>
+        <v>0.03776714014870919</v>
       </c>
       <c r="E20">
-        <v>0.1513491326128005</v>
+        <v>0.3927812403991737</v>
       </c>
       <c r="F20">
-        <v>0.4396633179412532</v>
+        <v>0.5586429251069447</v>
       </c>
       <c r="G20">
-        <v>0.3025245463062731</v>
+        <v>0.3934803300534213</v>
       </c>
       <c r="H20">
-        <v>0.2386439306004604</v>
+        <v>0.5482746203324069</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.975598754348511</v>
+        <v>0.682750618207649</v>
       </c>
       <c r="L20">
-        <v>0.4307973395031723</v>
+        <v>0.1626031660458409</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.091374013174942</v>
+        <v>1.827806583498131</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.566731214620773</v>
+        <v>1.073320242090574</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1130759574146367</v>
+        <v>0.04152564070766118</v>
       </c>
       <c r="E21">
-        <v>0.1448119131162446</v>
+        <v>0.3876781356997121</v>
       </c>
       <c r="F21">
-        <v>0.4741822669252684</v>
+        <v>0.5618842831414597</v>
       </c>
       <c r="G21">
-        <v>0.3240153448895029</v>
+        <v>0.3941830688641375</v>
       </c>
       <c r="H21">
-        <v>0.2419112288587115</v>
+        <v>0.5446095093987964</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.187609912018218</v>
+        <v>0.7527829790260796</v>
       </c>
       <c r="L21">
-        <v>0.4865998933082949</v>
+        <v>0.1787092858034356</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.144181310736172</v>
+        <v>1.821893983071561</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.676495380068303</v>
+        <v>1.101260262780272</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.120576727378392</v>
+        <v>0.04397113099017247</v>
       </c>
       <c r="E22">
-        <v>0.1409164613164755</v>
+        <v>0.3845191467659088</v>
       </c>
       <c r="F22">
-        <v>0.497806804851713</v>
+        <v>0.5643356944134297</v>
       </c>
       <c r="G22">
-        <v>0.3390378815812767</v>
+        <v>0.394918822442861</v>
       </c>
       <c r="H22">
-        <v>0.2445998079296032</v>
+        <v>0.5424447055428345</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.326369103453032</v>
+        <v>0.7983767186534863</v>
       </c>
       <c r="L22">
-        <v>0.5233196043716504</v>
+        <v>0.1892548389055975</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.181916407670371</v>
+        <v>1.81909125642315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.617796787565993</v>
+        <v>1.08631739151798</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1165728150191825</v>
+        <v>0.04266693945625377</v>
       </c>
       <c r="E23">
-        <v>0.1429600950532794</v>
+        <v>0.3861890434110045</v>
       </c>
       <c r="F23">
-        <v>0.4850957950136561</v>
+        <v>0.5629968578044924</v>
       </c>
       <c r="G23">
-        <v>0.3309261946345572</v>
+        <v>0.3945008081326193</v>
       </c>
       <c r="H23">
-        <v>0.2431122751036128</v>
+        <v>0.54357901396736</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.252288450340814</v>
+        <v>0.7740589501051431</v>
       </c>
       <c r="L23">
-        <v>0.5036966572027524</v>
+        <v>0.183624764314132</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.161468002984094</v>
+        <v>1.820489945291911</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.397895310913214</v>
+        <v>1.030402622063633</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1014187850612274</v>
+        <v>0.03770552853884368</v>
       </c>
       <c r="E24">
-        <v>0.1514621386715653</v>
+        <v>0.3928676236566968</v>
       </c>
       <c r="F24">
-        <v>0.439116059021643</v>
+        <v>0.5585955677195784</v>
       </c>
       <c r="G24">
-        <v>0.3021888125191126</v>
+        <v>0.3934735045225608</v>
       </c>
       <c r="H24">
-        <v>0.2385994399379712</v>
+        <v>0.5483384187396894</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.972135975613952</v>
+        <v>0.6816030687286627</v>
       </c>
       <c r="L24">
-        <v>0.4298890291054533</v>
+        <v>0.1623402561649101</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.090562348565385</v>
+        <v>1.827921130536566</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.165091082491585</v>
+        <v>0.9715610417142955</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08507475569648904</v>
+        <v>0.03230847543098037</v>
       </c>
       <c r="E25">
-        <v>0.1621610520297203</v>
+        <v>0.4008285768318114</v>
       </c>
       <c r="F25">
-        <v>0.3936348714356228</v>
+        <v>0.5552773367387118</v>
       </c>
       <c r="G25">
-        <v>0.2749585635949359</v>
+        <v>0.3935491467586374</v>
       </c>
       <c r="H25">
-        <v>0.2359189597598927</v>
+        <v>0.554462878284987</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.670399956891572</v>
+        <v>0.5811492043175406</v>
       </c>
       <c r="L25">
-        <v>0.3511454875327189</v>
+        <v>0.139469077012663</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.026614929703982</v>
+        <v>1.840488894684498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9295119618572301</v>
+        <v>0.9967210852463495</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02829632356917955</v>
+        <v>0.07302152386794347</v>
       </c>
       <c r="E2">
-        <v>0.4073428573611526</v>
+        <v>0.1712612053359219</v>
       </c>
       <c r="F2">
-        <v>0.5540613752812575</v>
+        <v>0.3632121512741975</v>
       </c>
       <c r="G2">
-        <v>0.394618540327393</v>
+        <v>0.2577068211512881</v>
       </c>
       <c r="H2">
-        <v>0.5598256522037914</v>
+        <v>0.235633440850016</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5065805752580843</v>
+        <v>1.44817621066494</v>
       </c>
       <c r="L2">
-        <v>0.1227057796620556</v>
+        <v>0.2936970043331542</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.853650692566276</v>
+        <v>0.9889687419956914</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9018167476027656</v>
+        <v>0.8841761656273093</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02555375907647317</v>
+        <v>0.06483145088652975</v>
       </c>
       <c r="E3">
-        <v>0.4121655656644716</v>
+        <v>0.1781486697790626</v>
       </c>
       <c r="F3">
-        <v>0.5540019758901806</v>
+        <v>0.3442871769918554</v>
       </c>
       <c r="G3">
-        <v>0.3959734702752016</v>
+        <v>0.2475563372639797</v>
       </c>
       <c r="H3">
-        <v>0.5639930804856448</v>
+        <v>0.2364040310908777</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4556783212029529</v>
+        <v>1.297338413307727</v>
       </c>
       <c r="L3">
-        <v>0.1113939134944673</v>
+        <v>0.2549949276160675</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.865005279891861</v>
+        <v>0.9687237984646799</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8852098640543602</v>
+        <v>0.815740693404166</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02385840434255471</v>
+        <v>0.05978929068320582</v>
       </c>
       <c r="E4">
-        <v>0.4153281861993481</v>
+        <v>0.1827196246068876</v>
       </c>
       <c r="F4">
-        <v>0.5543424821304797</v>
+        <v>0.3334344564008305</v>
       </c>
       <c r="G4">
-        <v>0.3971155826816357</v>
+        <v>0.2420210403090692</v>
       </c>
       <c r="H4">
-        <v>0.5668150632768132</v>
+        <v>0.2373252322866648</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4242478554418767</v>
+        <v>1.204549388872152</v>
       </c>
       <c r="L4">
-        <v>0.1044729462433054</v>
+        <v>0.2313157383684512</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.873177042429106</v>
+        <v>0.9587005695041881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8785430886507584</v>
+        <v>0.7880066306212825</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02316470416609917</v>
+        <v>0.0577308340462892</v>
       </c>
       <c r="E5">
-        <v>0.4166676690771425</v>
+        <v>0.1846664368443367</v>
       </c>
       <c r="F5">
-        <v>0.5545760369707438</v>
+        <v>0.3291953248713355</v>
       </c>
       <c r="G5">
-        <v>0.3976589189305386</v>
+        <v>0.2399317830727483</v>
       </c>
       <c r="H5">
-        <v>0.5680312582803992</v>
+        <v>0.2378094153349437</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.411396273404705</v>
+        <v>1.166685968058744</v>
       </c>
       <c r="L5">
-        <v>0.1016589075174466</v>
+        <v>0.2216833544160153</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.876808755959516</v>
+        <v>0.9551943768414759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8774421721109036</v>
+        <v>0.7834103151571981</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02304934605886899</v>
+        <v>0.05738879314644407</v>
       </c>
       <c r="E6">
-        <v>0.416893151611589</v>
+        <v>0.1849947297297447</v>
       </c>
       <c r="F6">
-        <v>0.5546205440457754</v>
+        <v>0.3285022295813604</v>
       </c>
       <c r="G6">
-        <v>0.3977538430560585</v>
+        <v>0.2395946626059384</v>
       </c>
       <c r="H6">
-        <v>0.5682372068527854</v>
+        <v>0.237896273739203</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4092596830052742</v>
+        <v>1.160395481585795</v>
       </c>
       <c r="L6">
-        <v>0.1011920237133523</v>
+        <v>0.2200848213732201</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.877430015551383</v>
+        <v>0.9546463412595898</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8851195452563729</v>
+        <v>0.8153660566927101</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02384906026289713</v>
+        <v>0.05976154520332955</v>
       </c>
       <c r="E7">
-        <v>0.4153460456529832</v>
+        <v>0.1827455418791022</v>
       </c>
       <c r="F7">
-        <v>0.5543452481065856</v>
+        <v>0.3333765555064403</v>
       </c>
       <c r="G7">
-        <v>0.3971225949332151</v>
+        <v>0.2419922014756395</v>
       </c>
       <c r="H7">
-        <v>0.5668311971578817</v>
+        <v>0.2373313266804402</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4240747090709931</v>
+        <v>1.204038965979379</v>
       </c>
       <c r="L7">
-        <v>0.1044349693981843</v>
+        <v>0.2311857687284089</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.873224799731332</v>
+        <v>0.9586509768028293</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9198803544065868</v>
+        <v>0.9577684185572082</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02735307821608046</v>
+        <v>0.07020014702787591</v>
       </c>
       <c r="E8">
-        <v>0.4089639335475823</v>
+        <v>0.1735638530670407</v>
       </c>
       <c r="F8">
-        <v>0.5539626520722223</v>
+        <v>0.3565217173816819</v>
       </c>
       <c r="G8">
-        <v>0.3950212928324461</v>
+        <v>0.25405677343646</v>
       </c>
       <c r="H8">
-        <v>0.5612079849515368</v>
+        <v>0.2358037562082274</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4890665960867011</v>
+        <v>1.396198800053327</v>
       </c>
       <c r="L8">
-        <v>0.1188004270693597</v>
+        <v>0.2803325675715769</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.857316634766292</v>
+        <v>0.981472052938031</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9911845110700312</v>
+        <v>1.24299183366324</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03413248711799355</v>
+        <v>0.09058191850797215</v>
       </c>
       <c r="E9">
-        <v>0.3980456364031486</v>
+        <v>0.1583612952936555</v>
       </c>
       <c r="F9">
-        <v>0.5562043268127113</v>
+        <v>0.40844873086116</v>
       </c>
       <c r="G9">
-        <v>0.3933659107447838</v>
+        <v>0.2836681226690203</v>
       </c>
       <c r="H9">
-        <v>0.5522673742740665</v>
+        <v>0.2365472711318901</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6150825955405139</v>
+        <v>1.772020866209573</v>
       </c>
       <c r="L9">
-        <v>0.1471614772530074</v>
+        <v>0.3775741403486705</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.835647885936794</v>
+        <v>1.046603463686324</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.045463893330748</v>
+        <v>1.457199410868441</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03905577690838413</v>
+        <v>0.1055307556823095</v>
       </c>
       <c r="E10">
-        <v>0.3909953958569723</v>
+        <v>0.1490296897939292</v>
       </c>
       <c r="F10">
-        <v>0.5596776131576746</v>
+        <v>0.4512487148674111</v>
       </c>
       <c r="G10">
-        <v>0.3936589791832006</v>
+        <v>0.3096703955575322</v>
       </c>
       <c r="H10">
-        <v>0.5469687022828396</v>
+        <v>0.2396426183116205</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7067557507934055</v>
+        <v>2.048118002790318</v>
       </c>
       <c r="L10">
-        <v>0.168110547274722</v>
+        <v>0.449842892838447</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.825545589339669</v>
+        <v>1.108754742340011</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.070563818952252</v>
+        <v>1.55589900630855</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04128272609065675</v>
+        <v>0.112332524085204</v>
       </c>
       <c r="E11">
-        <v>0.3879985390480201</v>
+        <v>0.1452138464585868</v>
       </c>
       <c r="F11">
-        <v>0.5616548401247812</v>
+        <v>0.4718849746920029</v>
       </c>
       <c r="G11">
-        <v>0.394121428441693</v>
+        <v>0.3225672597589977</v>
       </c>
       <c r="H11">
-        <v>0.5448335629391465</v>
+        <v>0.2416679004836624</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7482551600473357</v>
+        <v>2.173861703237435</v>
       </c>
       <c r="L11">
-        <v>0.1776644925446647</v>
+        <v>0.4829701011421434</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.822215259086931</v>
+        <v>1.140576019815398</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.080126694055622</v>
+        <v>1.593475516602155</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04212415569094219</v>
+        <v>0.1149089533010965</v>
       </c>
       <c r="E12">
-        <v>0.3868939226029546</v>
+        <v>0.1438333097772624</v>
       </c>
       <c r="F12">
-        <v>0.5624607022612835</v>
+        <v>0.4798808916879551</v>
       </c>
       <c r="G12">
-        <v>0.3943439729855669</v>
+        <v>0.3276175189797499</v>
       </c>
       <c r="H12">
-        <v>0.5440645891332139</v>
+        <v>0.2425292439745874</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7639398896737646</v>
+        <v>2.221510957628766</v>
       </c>
       <c r="L12">
-        <v>0.181285682574952</v>
+        <v>0.4955569278606617</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.8211362369764</v>
+        <v>1.153175465315144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.078064584097291</v>
+        <v>1.585373455641445</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04194302254502702</v>
+        <v>0.1143540310189053</v>
       </c>
       <c r="E13">
-        <v>0.3871304773886735</v>
+        <v>0.1441277217702766</v>
       </c>
       <c r="F13">
-        <v>0.5622846044436187</v>
+        <v>0.4781505320707637</v>
       </c>
       <c r="G13">
-        <v>0.3942939332753213</v>
+        <v>0.3265222363256299</v>
       </c>
       <c r="H13">
-        <v>0.5442284424698869</v>
+        <v>0.2423394450722469</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7605632610429325</v>
+        <v>2.21124717797889</v>
       </c>
       <c r="L13">
-        <v>0.1805056492910069</v>
+        <v>0.4928441483640711</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.821360522170096</v>
+        <v>1.15043686274177</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.071349401829849</v>
+        <v>1.558986294979434</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04135198869605006</v>
+        <v>0.1125444702944947</v>
       </c>
       <c r="E14">
-        <v>0.3879070558699542</v>
+        <v>0.1450989611552611</v>
       </c>
       <c r="F14">
-        <v>0.5617199938785902</v>
+        <v>0.472539086248652</v>
       </c>
       <c r="G14">
-        <v>0.3941387862997914</v>
+        <v>0.3229793340518512</v>
       </c>
       <c r="H14">
-        <v>0.5447695063548537</v>
+        <v>0.2417368378021649</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.749546162963469</v>
+        <v>2.177781106371356</v>
       </c>
       <c r="L14">
-        <v>0.1779623443741656</v>
+        <v>0.4840047435151291</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.822122836798087</v>
+        <v>1.141601339173661</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.06724370486927</v>
+        <v>1.542850222582558</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04098971884903335</v>
+        <v>0.111436175925391</v>
       </c>
       <c r="E15">
-        <v>0.3883866686994182</v>
+        <v>0.1457023492560552</v>
       </c>
       <c r="F15">
-        <v>0.5613815937996307</v>
+        <v>0.4691259603335141</v>
       </c>
       <c r="G15">
-        <v>0.3940499332742888</v>
+        <v>0.3208312832654627</v>
       </c>
       <c r="H15">
-        <v>0.5451060744003371</v>
+        <v>0.2413801931608646</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7427939108582393</v>
+        <v>2.157286817365417</v>
       </c>
       <c r="L15">
-        <v>0.1764049244132195</v>
+        <v>0.4785960450487607</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.822613496208703</v>
+        <v>1.136262082258156</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.043831713259806</v>
+        <v>1.450776151858804</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03890998159604919</v>
+        <v>0.1050863186664799</v>
       </c>
       <c r="E16">
-        <v>0.3911954784419311</v>
+        <v>0.1492879292061602</v>
       </c>
       <c r="F16">
-        <v>0.5595563905871543</v>
+        <v>0.44992470758514</v>
       </c>
       <c r="G16">
-        <v>0.3936353882688479</v>
+        <v>0.308850134059</v>
       </c>
       <c r="H16">
-        <v>0.5471137754131377</v>
+        <v>0.2395231565063796</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7040394945763353</v>
+        <v>2.039904283677743</v>
       </c>
       <c r="L16">
-        <v>0.1674866469123231</v>
+        <v>0.4476835274683566</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.825788708137935</v>
+        <v>1.106749840105607</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.029573286188366</v>
+        <v>1.394627468039374</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03763085093656571</v>
+        <v>0.101191633034162</v>
       </c>
       <c r="E17">
-        <v>0.3929724511261643</v>
+        <v>0.1515993715119031</v>
       </c>
       <c r="F17">
-        <v>0.5585384310647683</v>
+        <v>0.4384535634422946</v>
       </c>
       <c r="G17">
-        <v>0.3934654457461306</v>
+        <v>0.3017826090640057</v>
       </c>
       <c r="H17">
-        <v>0.548415916885034</v>
+        <v>0.2385459167707324</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6802121795777794</v>
+        <v>1.967939392221751</v>
       </c>
       <c r="L17">
-        <v>0.1620216415938103</v>
+        <v>0.4287883734467925</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.828060774609924</v>
+        <v>1.089580938817278</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.021410650428265</v>
+        <v>1.362449092014316</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03689393795845319</v>
+        <v>0.09895161679293807</v>
       </c>
       <c r="E18">
-        <v>0.3940143173880362</v>
+        <v>0.1529690726577613</v>
       </c>
       <c r="F18">
-        <v>0.5579903145754486</v>
+        <v>0.4319645759770907</v>
       </c>
       <c r="G18">
-        <v>0.3933986729955166</v>
+        <v>0.297817290727366</v>
       </c>
       <c r="H18">
-        <v>0.5491907837820094</v>
+        <v>0.2380415674719245</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.666488273245335</v>
+        <v>1.926560040007246</v>
       </c>
       <c r="L18">
-        <v>0.1588805931303767</v>
+        <v>0.4179436929739069</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.829486689630116</v>
+        <v>1.080037338563358</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.01865354123413</v>
+        <v>1.351573513057645</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03664422870671302</v>
+        <v>0.09819318787453568</v>
       </c>
       <c r="E19">
-        <v>0.3943704763594891</v>
+        <v>0.1534396574317523</v>
       </c>
       <c r="F19">
-        <v>0.5578111526353808</v>
+        <v>0.4297858185103252</v>
       </c>
       <c r="G19">
-        <v>0.3933813816894727</v>
+        <v>0.296491452651523</v>
       </c>
       <c r="H19">
-        <v>0.549457591121012</v>
+        <v>0.2378805525988383</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6618383499150298</v>
+        <v>1.912551579414441</v>
       </c>
       <c r="L19">
-        <v>0.1578174838722504</v>
+        <v>0.4142756963911296</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.829989927571887</v>
+        <v>1.076861821671429</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.03108714652879</v>
+        <v>1.400592351815817</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03776714014870919</v>
+        <v>0.1016062144423913</v>
       </c>
       <c r="E20">
-        <v>0.3927812403991737</v>
+        <v>0.1513491326128147</v>
       </c>
       <c r="F20">
-        <v>0.5586429251069447</v>
+        <v>0.4396633179412532</v>
       </c>
       <c r="G20">
-        <v>0.3934803300534213</v>
+        <v>0.3025245463062163</v>
       </c>
       <c r="H20">
-        <v>0.5482746203324069</v>
+        <v>0.2386439306004604</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.682750618207649</v>
+        <v>1.975598754348596</v>
       </c>
       <c r="L20">
-        <v>0.1626031660458409</v>
+        <v>0.4307973395032008</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.827806583498131</v>
+        <v>1.091374013174885</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.073320242090574</v>
+        <v>1.566731214620773</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04152564070766118</v>
+        <v>0.1130759574146367</v>
       </c>
       <c r="E21">
-        <v>0.3876781356997121</v>
+        <v>0.1448119131162287</v>
       </c>
       <c r="F21">
-        <v>0.5618842831414597</v>
+        <v>0.4741822669252613</v>
       </c>
       <c r="G21">
-        <v>0.3941830688641375</v>
+        <v>0.3240153448895029</v>
       </c>
       <c r="H21">
-        <v>0.5446095093987964</v>
+        <v>0.2419112288587115</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7527829790260796</v>
+        <v>2.187609912018104</v>
       </c>
       <c r="L21">
-        <v>0.1787092858034356</v>
+        <v>0.4865998933082381</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.821893983071561</v>
+        <v>1.144181310736087</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.101260262780272</v>
+        <v>1.676495380068275</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04397113099017247</v>
+        <v>0.1205767273782925</v>
       </c>
       <c r="E22">
-        <v>0.3845191467659088</v>
+        <v>0.1409164613164613</v>
       </c>
       <c r="F22">
-        <v>0.5643356944134297</v>
+        <v>0.4978068048516988</v>
       </c>
       <c r="G22">
-        <v>0.394918822442861</v>
+        <v>0.3390378815813619</v>
       </c>
       <c r="H22">
-        <v>0.5424447055428345</v>
+        <v>0.2445998079296032</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7983767186534863</v>
+        <v>2.326369103453203</v>
       </c>
       <c r="L22">
-        <v>0.1892548389055975</v>
+        <v>0.5233196043716077</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.81909125642315</v>
+        <v>1.1819164076704</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.08631739151798</v>
+        <v>1.617796787565965</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04266693945625377</v>
+        <v>0.1165728150193104</v>
       </c>
       <c r="E23">
-        <v>0.3861890434110045</v>
+        <v>0.142960095053283</v>
       </c>
       <c r="F23">
-        <v>0.5629968578044924</v>
+        <v>0.4850957950136419</v>
       </c>
       <c r="G23">
-        <v>0.3945008081326193</v>
+        <v>0.3309261946344861</v>
       </c>
       <c r="H23">
-        <v>0.54357901396736</v>
+        <v>0.2431122751037265</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7740589501051431</v>
+        <v>2.25228845034087</v>
       </c>
       <c r="L23">
-        <v>0.183624764314132</v>
+        <v>0.503696657202795</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.820489945291911</v>
+        <v>1.161468002984066</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.030402622063633</v>
+        <v>1.397895310913128</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03770552853884368</v>
+        <v>0.1014187850609503</v>
       </c>
       <c r="E24">
-        <v>0.3928676236566968</v>
+        <v>0.1514621386715511</v>
       </c>
       <c r="F24">
-        <v>0.5585955677195784</v>
+        <v>0.4391160590216288</v>
       </c>
       <c r="G24">
-        <v>0.3934735045225608</v>
+        <v>0.3021888125190486</v>
       </c>
       <c r="H24">
-        <v>0.5483384187396894</v>
+        <v>0.2385994399380849</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6816030687286627</v>
+        <v>1.972135975613838</v>
       </c>
       <c r="L24">
-        <v>0.1623402561649101</v>
+        <v>0.4298890291054391</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.827921130536566</v>
+        <v>1.090562348565385</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9715610417142955</v>
+        <v>1.165091082491443</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03230847543098037</v>
+        <v>0.08507475569636824</v>
       </c>
       <c r="E25">
-        <v>0.4008285768318114</v>
+        <v>0.1621610520297132</v>
       </c>
       <c r="F25">
-        <v>0.5552773367387118</v>
+        <v>0.3936348714356157</v>
       </c>
       <c r="G25">
-        <v>0.3935491467586374</v>
+        <v>0.274958563594943</v>
       </c>
       <c r="H25">
-        <v>0.554462878284987</v>
+        <v>0.2359189597598785</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5811492043175406</v>
+        <v>1.670399956891657</v>
       </c>
       <c r="L25">
-        <v>0.139469077012663</v>
+        <v>0.3511454875328042</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.840488894684498</v>
+        <v>1.026614929703968</v>
       </c>
     </row>
   </sheetData>
